--- a/biology/Zoologie/Batrachoseps_attenuatus/Batrachoseps_attenuatus.xlsx
+++ b/biology/Zoologie/Batrachoseps_attenuatus/Batrachoseps_attenuatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Batrachoseps attenuatus est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Batrachoseps attenuatus est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la côte Ouest des États-Unis. Elle se rencontre dans la pointe Sud-Ouest de l'Oregon et dans la moitié Nord de la Californie. Elle est présente jusqu'à 1 000 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la côte Ouest des États-Unis. Elle se rencontre dans la pointe Sud-Ouest de l'Oregon et dans la moitié Nord de la Californie. Elle est présente jusqu'à 1 000 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Batrachoseps attenuatus mesure en général de 32 à 52 mm, les mâles restant plus petits que les femelles. Le taille maximale observée est de 59 mm[2]. Son dos est brun terne ou brun rougeâtre. Son espérance de vie est de 8 à 10 ans, sa maturité sexuelle est atteinte entre 2 et 4 ans[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Batrachoseps attenuatus mesure en général de 32 à 52 mm, les mâles restant plus petits que les femelles. Le taille maximale observée est de 59 mm. Son dos est brun terne ou brun rougeâtre. Son espérance de vie est de 8 à 10 ans, sa maturité sexuelle est atteinte entre 2 et 4 ans.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Batrachoseps caudatus[4] a été placée en synonymie avec Batrachoseps attenuatus par Wake, Jockusch et Papenfuss en 1998[5].
-Pour Highton[6] ce nom recouvre 39 espèces cryptiques.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Batrachoseps caudatus a été placée en synonymie avec Batrachoseps attenuatus par Wake, Jockusch et Papenfuss en 1998.
+Pour Highton ce nom recouvre 39 espèces cryptiques.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Eschscholtz, 1833 :  Zoologischer Atlas, enthaltend Abbildungen und Beschreibungen neuer Thierarten, während des Flottcapitains von Kotzebue zweiter Reise um die Welt, auf Russisch-Kaiserlich Kriegsschupp Predpriaetië in den Jahren 1823-1826 (texte intégral).</t>
         </is>
